--- a/data/kidsplp.xlsx
+++ b/data/kidsplp.xlsx
@@ -27,13 +27,13 @@
     <t>brand</t>
   </si>
   <si>
-    <t>a0@gmail.com</t>
-  </si>
-  <si>
     <t>Cameraman12$</t>
   </si>
   <si>
     <t>asics</t>
+  </si>
+  <si>
+    <t>0a@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,13 +420,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
